--- a/CashFlow/LULU_cashflow.xlsx
+++ b/CashFlow/LULU_cashflow.xlsx
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2717000000.0</v>
+        <v>-96548000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2589000000.0</v>
+        <v>-126621000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1686234000.0</v>
+        <v>-162427000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>962732000.0</v>
+        <v>-197545000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>293876000.0</v>
+        <v>-117591000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-133176000.0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>82663000.0</v>
+        <v>535000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>37701000.0</v>
+        <v>443000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4320000.0</v>
+        <v>286248000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-26233000.0</v>
+        <v>166440000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-35349000.0</v>
+        <v>80546000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>5250000.0</v>
